--- a/SuppXLS/Scen_TRAGSL_TAX.xlsx
+++ b/SuppXLS/Scen_TRAGSL_TAX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabGren\Work Folders\Documents\TransportElModellSthlm\SimpleModel\City_TRA_STHLM_ts\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F037D32-A555-4518-B266-D8A977A077FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6965A3-6976-49D5-B999-0B67C2534731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="23040" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="40">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66:H89"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,6 +931,9 @@
       <c r="F18" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
       <c r="H18">
         <f t="shared" ref="H18:H41" si="0">10*J18</f>
         <v>6</v>
@@ -952,6 +955,9 @@
       <c r="F19" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
       <c r="H19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -973,6 +979,9 @@
       <c r="F20" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
       <c r="H20">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -994,6 +1003,9 @@
       <c r="F21" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
       <c r="H21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1015,6 +1027,9 @@
       <c r="F22" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
       <c r="H22">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1036,6 +1051,9 @@
       <c r="F23" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
       <c r="H23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1057,6 +1075,9 @@
       <c r="F24" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
       <c r="H24">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1078,6 +1099,9 @@
       <c r="F25" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
       <c r="H25">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1099,6 +1123,9 @@
       <c r="F26" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
       <c r="H26">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1120,6 +1147,9 @@
       <c r="F27" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
       <c r="H27">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1141,6 +1171,9 @@
       <c r="F28" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
       <c r="H28">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1162,6 +1195,9 @@
       <c r="F29" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
       <c r="H29">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1183,6 +1219,9 @@
       <c r="F30" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
       <c r="H30">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1204,6 +1243,9 @@
       <c r="F31" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
       <c r="H31">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1225,6 +1267,9 @@
       <c r="F32" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
       <c r="H32">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1246,6 +1291,9 @@
       <c r="F33" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
       <c r="H33">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1267,6 +1315,9 @@
       <c r="F34" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
       <c r="H34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1288,6 +1339,9 @@
       <c r="F35" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
       <c r="H35">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1309,6 +1363,9 @@
       <c r="F36" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G36" t="s">
+        <v>39</v>
+      </c>
       <c r="H36">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1330,6 +1387,9 @@
       <c r="F37" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
       <c r="H37">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1351,6 +1411,9 @@
       <c r="F38" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
       <c r="H38">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1372,6 +1435,9 @@
       <c r="F39" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
       <c r="H39">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1393,6 +1459,9 @@
       <c r="F40" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
       <c r="H40">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1414,6 +1483,9 @@
       <c r="F41" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
       <c r="H41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1435,6 +1507,9 @@
       <c r="F42" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
       <c r="H42">
         <f t="shared" ref="H42:H65" si="1">30*J42</f>
         <v>18</v>
@@ -1456,6 +1531,9 @@
       <c r="F43" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
       <c r="H43">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1477,6 +1555,9 @@
       <c r="F44" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
       <c r="H44">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1498,6 +1579,9 @@
       <c r="F45" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
       <c r="H45">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1519,6 +1603,9 @@
       <c r="F46" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
       <c r="H46">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1540,6 +1627,9 @@
       <c r="F47" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
       <c r="H47">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1561,6 +1651,9 @@
       <c r="F48" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
       <c r="H48">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1582,6 +1675,9 @@
       <c r="F49" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
       <c r="H49">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1603,6 +1699,9 @@
       <c r="F50" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
       <c r="H50">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1624,6 +1723,9 @@
       <c r="F51" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
       <c r="H51">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1645,6 +1747,9 @@
       <c r="F52" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
       <c r="H52">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1666,6 +1771,9 @@
       <c r="F53" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
       <c r="H53">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1687,6 +1795,9 @@
       <c r="F54" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
       <c r="H54">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1708,6 +1819,9 @@
       <c r="F55" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
       <c r="H55">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1729,6 +1843,9 @@
       <c r="F56" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
       <c r="H56">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1750,6 +1867,9 @@
       <c r="F57" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
       <c r="H57">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1771,6 +1891,9 @@
       <c r="F58" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
       <c r="H58">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1792,6 +1915,9 @@
       <c r="F59" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G59" t="s">
+        <v>39</v>
+      </c>
       <c r="H59">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1813,6 +1939,9 @@
       <c r="F60" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G60" t="s">
+        <v>39</v>
+      </c>
       <c r="H60">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1834,6 +1963,9 @@
       <c r="F61" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
       <c r="H61">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1855,6 +1987,9 @@
       <c r="F62" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
       <c r="H62">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1876,6 +2011,9 @@
       <c r="F63" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
       <c r="H63">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1897,6 +2035,9 @@
       <c r="F64" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G64" t="s">
+        <v>39</v>
+      </c>
       <c r="H64">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1918,6 +2059,9 @@
       <c r="F65" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
       <c r="H65">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1939,6 +2083,9 @@
       <c r="F66" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G66" t="s">
+        <v>39</v>
+      </c>
       <c r="H66">
         <f t="shared" ref="H66:H89" si="2">5*J66</f>
         <v>3</v>
@@ -1960,6 +2107,9 @@
       <c r="F67" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
       <c r="H67">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1981,6 +2131,9 @@
       <c r="F68" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
       <c r="H68">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -2002,6 +2155,9 @@
       <c r="F69" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
       <c r="H69">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -2023,6 +2179,9 @@
       <c r="F70" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
       <c r="H70">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -2044,6 +2203,9 @@
       <c r="F71" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
       <c r="H71">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -2065,6 +2227,9 @@
       <c r="F72" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G72" t="s">
+        <v>39</v>
+      </c>
       <c r="H72">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2086,6 +2251,9 @@
       <c r="F73" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
       <c r="H73">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2107,6 +2275,9 @@
       <c r="F74" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
       <c r="H74">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2128,6 +2299,9 @@
       <c r="F75" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
       <c r="H75">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2149,6 +2323,9 @@
       <c r="F76" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
       <c r="H76">
         <f t="shared" si="2"/>
         <v>5.5</v>
@@ -2170,6 +2347,9 @@
       <c r="F77" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G77" t="s">
+        <v>39</v>
+      </c>
       <c r="H77">
         <f t="shared" si="2"/>
         <v>5.5</v>
@@ -2191,6 +2371,9 @@
       <c r="F78" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
       <c r="H78">
         <f t="shared" si="2"/>
         <v>5.5</v>
@@ -2212,6 +2395,9 @@
       <c r="F79" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
       <c r="H79">
         <f t="shared" si="2"/>
         <v>5.5</v>
@@ -2233,6 +2419,9 @@
       <c r="F80" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
       <c r="H80">
         <f t="shared" si="2"/>
         <v>5.5</v>
@@ -2254,6 +2443,9 @@
       <c r="F81" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G81" t="s">
+        <v>39</v>
+      </c>
       <c r="H81">
         <f t="shared" si="2"/>
         <v>5.5</v>
@@ -2275,6 +2467,9 @@
       <c r="F82" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G82" t="s">
+        <v>39</v>
+      </c>
       <c r="H82">
         <f t="shared" si="2"/>
         <v>5.5</v>
@@ -2296,6 +2491,9 @@
       <c r="F83" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G83" t="s">
+        <v>39</v>
+      </c>
       <c r="H83">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2317,6 +2515,9 @@
       <c r="F84" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G84" t="s">
+        <v>39</v>
+      </c>
       <c r="H84">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2338,6 +2539,9 @@
       <c r="F85" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G85" t="s">
+        <v>39</v>
+      </c>
       <c r="H85">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2359,6 +2563,9 @@
       <c r="F86" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G86" t="s">
+        <v>39</v>
+      </c>
       <c r="H86">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2380,6 +2587,9 @@
       <c r="F87" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G87" t="s">
+        <v>39</v>
+      </c>
       <c r="H87">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2401,6 +2611,9 @@
       <c r="F88" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="G88" t="s">
+        <v>39</v>
+      </c>
       <c r="H88">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2421,6 +2634,9 @@
       </c>
       <c r="F89" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>39</v>
       </c>
       <c r="H89">
         <f t="shared" si="2"/>
